--- a/최준환/test_data.xlsx
+++ b/최준환/test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\조롱이\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\파이썬 팀프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A4E43B-66F0-420A-82EA-E1A6BF62C3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E0307-6AE6-4709-95A0-27F66A865F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="945" windowWidth="18915" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>1. 다음 대화에서 빈칸에 들어갈 말로 가장 적절한 것은?
 사람1 : (사진을 보면서) 이거 니가?
@@ -55,14 +55,6 @@
     <t>뭐 먹었어?</t>
   </si>
   <si>
-    <t>3. 다음 문장의 뜻을 올바르게 해석한 것은?
-"뭐 뭇나?"</t>
-  </si>
-  <si>
-    <t>4. 다음 중 밑줄 친 문자의 뜻을 올바르게 해석한 것은?
-어어어 그 옷 파이다.</t>
-  </si>
-  <si>
     <t>계이름 파</t>
   </si>
   <si>
@@ -75,9 +67,6 @@
     <t>예쁘다</t>
   </si>
   <si>
-    <t>5. 다음의 뜻 풀이 중 옳지 못한 것은?</t>
-  </si>
-  <si>
     <t>가가! - 가지고 가!</t>
   </si>
   <si>
@@ -90,167 +79,193 @@
     <t>가가가 가! - 그 사람이 이 사람이구나!</t>
   </si>
   <si>
-    <t>6. 다음 중 경상도 사투리가 아닌 것은?</t>
-  </si>
-  <si>
     <t>정구지</t>
   </si>
   <si>
-    <t>행님</t>
-  </si>
-  <si>
     <t>어제 아래</t>
   </si>
   <si>
     <t>솔찬히</t>
   </si>
   <si>
-    <t>7. 다음 문자의 뜻을 올바르게 해석한 것은?
+    <t>요령껏 해라</t>
+  </si>
+  <si>
+    <t>빨리 해라</t>
+  </si>
+  <si>
+    <t>제대로 해라</t>
+  </si>
+  <si>
+    <t>대충 해라</t>
+  </si>
+  <si>
+    <t>어어어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>답</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 귤은 덜익어서 먹을 수 있겠니?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 귤은 너무 달아서 먹을 수 있겠니?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 귤은 이렇게 시어서 먹을 수 있겠니?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 귤이 큰데 한 입에 물 수 있겠니?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이는 왜이리 화가 많니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이는 왜이리 밥을 안먹니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이는 왜이리 산만하니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 아이는 왜이리 조용하니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고 힘들다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고 달다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고 질린다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고 데였다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘에 별이 없네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘에 별이 한가득이네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘에 별이 엄청 밝게 빛나네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘이 엄청 캄캄하네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은거 있으면 나눠먹어야지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은거 있으면 먹어보라고 해야지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은거 있으면 말을 해야지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은거 있으면 아껴먹어야지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>히야</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. 다음 중 밑줄 친 문자의 뜻을 올바르게 해석한 것은?
+그 옷 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파이다.</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 다음의 뜻 풀이 중 옳지 못한 것은?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 다음 중 경상도 사투리가 아닌 것은?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 다음 문자의 뜻을 올바르게 해석한 것은?
 "단디 해라."</t>
-  </si>
-  <si>
-    <t>요령껏 해라</t>
-  </si>
-  <si>
-    <t>빨리 해라</t>
-  </si>
-  <si>
-    <t>제대로 해라</t>
-  </si>
-  <si>
-    <t>대충 해라</t>
-  </si>
-  <si>
-    <t>어어어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>답</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 귤은 덜익어서 먹을 수 있겠니?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 귤은 너무 달아서 먹을 수 있겠니?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 귤은 이렇게 시어서 먹을 수 있겠니?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 귤이 큰데 한 입에 물 수 있겠니?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 다음 문장의 뜻을 올바르게 해석한 것은?
+이 귤 이래 세가라바가 물수있겠나</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>8. 다음 문장의 뜻을 올바르게 해석한 것은?
-이 귤 이래 세가라바가 물수있겠나</t>
+아따 디다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 다음 문장의 뜻을 올바르게 해석한 것은?
+야는 와이래 분답노</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>10. 다음 문장의 뜻을 올바르게 해석한 것은?
-야는 와이래 분답노</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 아이는 왜이리 화가 많니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 아이는 왜이리 밥을 안먹니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 아이는 왜이리 산만하니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 아이는 왜이리 조용하니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 다음 문장의 뜻을 올바르게 해석한 것은?
-아따 디다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이고 힘들다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이고 달다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이고 질린다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이고 데였다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘에 별이 없네</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘에 별이 한가득이네</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘에 별이 엄청 밝게 빛나네</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘이 엄청 캄캄하네</t>
+하늘에 별이 천지삐까리네</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>11. 다음 문장의 뜻을 올바르게 해석한 것은?
-하늘에 별이 천지삐까리네</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은거 있으면 같이 먹어야지 혼자 먹니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은거 있으면 먹어보라고 해야지 혼자 먹니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은거 있으면 말을 해야지 혼자 먹니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은거 있으면 나눠먹어야지 혼자 먹니</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. 다음 문장의 뜻을 올바르게 해석한 것은?
-좋은거 있으면 농갈라무야지 혼자 묵노</t>
+좋은거 있으면 농갈라무야지</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +430,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1206,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1219,22 +1243,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1242,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1279,150 +1303,150 @@
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1439,42 +1463,22 @@
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/최준환/test_data.xlsx
+++ b/최준환/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\파이썬 팀프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E0307-6AE6-4709-95A0-27F66A865F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B1CBF-2ECF-4E09-9810-85C9B606E21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="945" windowWidth="18915" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>1. 다음 대화에서 빈칸에 들어갈 말로 가장 적절한 것은?
 사람1 : (사진을 보면서) 이거 니가?
@@ -65,18 +65,6 @@
   </si>
   <si>
     <t>예쁘다</t>
-  </si>
-  <si>
-    <t>가가! - 가지고 가!</t>
-  </si>
-  <si>
-    <t>가가? - 아까 그 사람이니?</t>
-  </si>
-  <si>
-    <t>가가 가가? 그 사람이 아까 그 사람이니?</t>
-  </si>
-  <si>
-    <t>가가가 가! - 그 사람이 이 사람이구나!</t>
   </si>
   <si>
     <t>정구지</t>
@@ -231,10 +219,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>4. 다음의 뜻 풀이 중 옳지 못한 것은?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>5. 다음 중 경상도 사투리가 아닌 것은?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -264,7 +248,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>11. 다음 문장의 뜻을 올바르게 해석한 것은?
+    <t>4. 다음 문장의 뜻을 올바르게 해석한 것은?
 좋은거 있으면 농갈라무야지</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1230,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1243,22 +1227,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1266,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1303,7 +1287,7 @@
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1321,164 +1305,144 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>54</v>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
